--- a/Summer Endophyte Surveys/Summer 2021 Seed Surveys.xlsx
+++ b/Summer Endophyte Surveys/Summer 2021 Seed Surveys.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicampbell/Box Sync/Grad/Endophytes/2021_summer_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicampbell/Documents/GitHub/Fungal_Endophytes_Summer_2022/Summer Endophyte Surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA700F79-3520-F346-B2E7-5AD36F8E121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A7D6F-E406-6B46-A790-A401635D28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D98525AB-97B2-884C-9173-2FE30384DD2C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Seed Surveys" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46714BE-9372-A64A-B392-AF533E4FD8A2}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="O159" sqref="O159"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,7 +1138,9 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
       <c r="S2" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1189,9 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
       <c r="S3" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1240,9 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
       <c r="S4" t="s">
         <v>25</v>
       </c>
@@ -1285,7 +1291,9 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
       <c r="S5" t="s">
         <v>27</v>
       </c>
@@ -1334,7 +1342,9 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
       <c r="S6" t="s">
         <v>29</v>
       </c>
@@ -1374,7 +1384,9 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
       <c r="S7" t="s">
         <v>31</v>
       </c>
@@ -1420,7 +1432,9 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
       <c r="S8" t="s">
         <v>33</v>
       </c>
@@ -1466,7 +1480,9 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
       <c r="S9" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1525,9 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
       <c r="S10" t="s">
         <v>35</v>
       </c>
@@ -1546,7 +1564,9 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
       <c r="S11" t="s">
         <v>36</v>
       </c>
@@ -1595,7 +1615,9 @@
       <c r="M12">
         <v>0</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
       <c r="S12" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1663,9 @@
       <c r="M13">
         <v>0</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
       <c r="S13" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1806,9 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
       <c r="S16" t="s">
         <v>43</v>
       </c>
@@ -1828,7 +1854,9 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
       <c r="S17" t="s">
         <v>44</v>
       </c>
@@ -1874,7 +1902,9 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
       <c r="S18" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1941,9 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
       <c r="S19" t="s">
         <v>46</v>
       </c>
@@ -1960,7 +1992,9 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
       <c r="S20" t="s">
         <v>47</v>
       </c>
@@ -1997,7 +2031,9 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
       <c r="S21" t="s">
         <v>48</v>
       </c>
@@ -2046,7 +2082,9 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
       <c r="S22" t="s">
         <v>49</v>
       </c>
@@ -2092,7 +2130,9 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
       <c r="S23" t="s">
         <v>50</v>
       </c>
@@ -2129,7 +2169,9 @@
       <c r="M24">
         <v>0</v>
       </c>
-      <c r="R24" s="3"/>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
       <c r="S24" t="s">
         <v>51</v>
       </c>
@@ -2169,7 +2211,9 @@
       <c r="M25">
         <v>0</v>
       </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
       <c r="S25" t="s">
         <v>52</v>
       </c>
@@ -2209,7 +2253,9 @@
       <c r="M26">
         <v>0</v>
       </c>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
       <c r="S26" t="s">
         <v>53</v>
       </c>
@@ -2258,7 +2304,9 @@
       <c r="M27">
         <v>0</v>
       </c>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
       <c r="S27" t="s">
         <v>54</v>
       </c>
@@ -2390,7 +2438,9 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
       <c r="S30" t="s">
         <v>57</v>
       </c>
@@ -2427,7 +2477,9 @@
       <c r="M31">
         <v>0</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>1</v>
+      </c>
       <c r="S31" t="s">
         <v>58</v>
       </c>
@@ -2467,7 +2519,9 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
       <c r="S32" t="s">
         <v>59</v>
       </c>
@@ -2507,7 +2561,9 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
       <c r="S33" t="s">
         <v>60</v>
       </c>
@@ -2547,7 +2603,9 @@
       <c r="M34">
         <v>0</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3">
+        <v>1</v>
+      </c>
       <c r="S34" t="s">
         <v>61</v>
       </c>
@@ -2587,7 +2645,9 @@
       <c r="M35">
         <v>0</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="3">
+        <v>1</v>
+      </c>
       <c r="S35" t="s">
         <v>62</v>
       </c>
@@ -2633,7 +2693,9 @@
       <c r="M36">
         <v>0</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
       <c r="S36" t="s">
         <v>63</v>
       </c>
@@ -2676,7 +2738,9 @@
       <c r="M37">
         <v>0</v>
       </c>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
       <c r="S37" t="s">
         <v>64</v>
       </c>
@@ -2719,7 +2783,9 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="R38" s="3"/>
+      <c r="R38" s="3">
+        <v>1</v>
+      </c>
       <c r="S38" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +2828,9 @@
       <c r="M39">
         <v>0</v>
       </c>
-      <c r="R39" s="3"/>
+      <c r="R39" s="3">
+        <v>1</v>
+      </c>
       <c r="S39" t="s">
         <v>66</v>
       </c>
@@ -2802,7 +2870,9 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="R40" s="3"/>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
       <c r="S40" t="s">
         <v>67</v>
       </c>
@@ -2842,7 +2912,9 @@
       <c r="M41">
         <v>0</v>
       </c>
-      <c r="R41" s="3"/>
+      <c r="R41" s="3">
+        <v>1</v>
+      </c>
       <c r="S41" t="s">
         <v>68</v>
       </c>
@@ -2922,7 +2994,6 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="R43" s="3"/>
       <c r="S43" t="s">
         <v>70</v>
       </c>
@@ -2968,7 +3039,9 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="R44" s="3"/>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
       <c r="S44" t="s">
         <v>71</v>
       </c>
@@ -3005,7 +3078,9 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="R45" s="3"/>
+      <c r="R45" s="3">
+        <v>1</v>
+      </c>
       <c r="S45" t="s">
         <v>72</v>
       </c>
@@ -3042,7 +3117,9 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="R46" s="3"/>
+      <c r="R46" s="3">
+        <v>1</v>
+      </c>
       <c r="S46" t="s">
         <v>73</v>
       </c>
@@ -3082,7 +3159,9 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="R47" s="3"/>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
       <c r="S47" t="s">
         <v>74</v>
       </c>
@@ -3122,7 +3201,9 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="R48" s="3"/>
+      <c r="R48" s="3">
+        <v>1</v>
+      </c>
       <c r="S48" t="s">
         <v>75</v>
       </c>
@@ -3168,7 +3249,9 @@
       <c r="M49">
         <v>0</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
       <c r="S49" t="s">
         <v>76</v>
       </c>
@@ -3205,7 +3288,9 @@
       <c r="M50">
         <v>0</v>
       </c>
-      <c r="R50" s="3"/>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
       <c r="S50" t="s">
         <v>77</v>
       </c>
@@ -3245,7 +3330,9 @@
       <c r="M51">
         <v>0</v>
       </c>
-      <c r="R51" s="3"/>
+      <c r="R51" s="3">
+        <v>1</v>
+      </c>
       <c r="S51" t="s">
         <v>78</v>
       </c>

--- a/Summer Endophyte Surveys/Summer 2021 Seed Surveys.xlsx
+++ b/Summer Endophyte Surveys/Summer 2021 Seed Surveys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicampbell/Documents/GitHub/Fungal_Endophytes_Summer_2022/Summer Endophyte Surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738A7D6F-E406-6B46-A790-A401635D28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EF113-AEEC-6C44-956E-AAD571BCAF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{D98525AB-97B2-884C-9173-2FE30384DD2C}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46714BE-9372-A64A-B392-AF533E4FD8A2}">
   <dimension ref="A1:T152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
+      <selection activeCell="R138" sqref="R138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
         <v>21</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="s">
         <v>25</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="s">
         <v>27</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" t="s">
         <v>31</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="s">
         <v>34</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="s">
         <v>35</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="s">
         <v>36</v>
@@ -1711,7 +1711,9 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
       <c r="S14" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1759,9 @@
       <c r="M15">
         <v>0</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
       <c r="S15" t="s">
         <v>41</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="s">
         <v>43</v>
@@ -1855,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="s">
         <v>44</v>
@@ -1903,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="s">
         <v>45</v>
@@ -1942,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="s">
         <v>46</v>
@@ -2131,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="s">
         <v>50</v>
@@ -2212,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="s">
         <v>52</v>
@@ -2352,7 +2356,9 @@
       <c r="M28">
         <v>0</v>
       </c>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
       <c r="S28" t="s">
         <v>55</v>
       </c>
@@ -2389,7 +2395,9 @@
       <c r="M29">
         <v>0</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
       <c r="S29" t="s">
         <v>56</v>
       </c>
@@ -2478,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="s">
         <v>58</v>
@@ -2520,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="s">
         <v>59</v>
@@ -2604,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="R34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34" t="s">
         <v>61</v>
@@ -2646,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="s">
         <v>62</v>
@@ -2784,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="R38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38" t="s">
         <v>65</v>
@@ -2829,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="s">
         <v>66</v>
@@ -2913,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="s">
         <v>68</v>
@@ -2954,7 +2962,9 @@
       <c r="M42">
         <v>0</v>
       </c>
-      <c r="R42" s="3"/>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
       <c r="S42" t="s">
         <v>69</v>
       </c>
@@ -2994,6 +3004,9 @@
       <c r="M43">
         <v>0</v>
       </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
       <c r="S43" t="s">
         <v>70</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S45" t="s">
         <v>72</v>
@@ -3118,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="s">
         <v>73</v>
@@ -3202,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="s">
         <v>75</v>
@@ -3331,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51" t="s">
         <v>78</v>
@@ -3766,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="R60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S60" t="s">
         <v>88</v>
@@ -3958,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S64" t="s">
         <v>92</v>
@@ -4053,9 +4066,7 @@
       <c r="M66">
         <v>0</v>
       </c>
-      <c r="R66" s="3">
-        <v>0</v>
-      </c>
+      <c r="R66" s="3"/>
       <c r="S66" t="s">
         <v>94</v>
       </c>
@@ -4335,7 +4346,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R72" s="3"/>
+      <c r="R72" s="3">
+        <v>1</v>
+      </c>
       <c r="S72" t="s">
         <v>100</v>
       </c>
@@ -4484,7 +4497,7 @@
         <v>2</v>
       </c>
       <c r="R75" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S75" t="s">
         <v>103</v>
@@ -4567,7 +4580,9 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="R77" s="5"/>
+      <c r="R77" s="5">
+        <v>1</v>
+      </c>
       <c r="S77" t="s">
         <v>105</v>
       </c>
@@ -4613,9 +4628,7 @@
       <c r="M78">
         <v>0</v>
       </c>
-      <c r="R78" s="3">
-        <v>0</v>
-      </c>
+      <c r="R78" s="3"/>
       <c r="S78" t="s">
         <v>106</v>
       </c>
@@ -4907,9 +4920,7 @@
       <c r="N84">
         <v>1</v>
       </c>
-      <c r="R84" s="3">
-        <v>1</v>
-      </c>
+      <c r="R84" s="3"/>
       <c r="S84" t="s">
         <v>112</v>
       </c>
@@ -4955,9 +4966,7 @@
       <c r="M85">
         <v>0</v>
       </c>
-      <c r="R85" s="3">
-        <v>0</v>
-      </c>
+      <c r="R85" s="3"/>
       <c r="S85" t="s">
         <v>113</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="R86" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="s">
         <v>114</v>
@@ -5051,9 +5060,7 @@
       <c r="M87">
         <v>0</v>
       </c>
-      <c r="R87" s="3">
-        <v>0</v>
-      </c>
+      <c r="R87" s="3"/>
       <c r="S87" t="s">
         <v>115</v>
       </c>
@@ -5099,9 +5106,7 @@
       <c r="M88">
         <v>0</v>
       </c>
-      <c r="R88" s="3">
-        <v>0</v>
-      </c>
+      <c r="R88" s="3"/>
       <c r="S88" t="s">
         <v>116</v>
       </c>
@@ -5639,7 +5644,9 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="R103" s="5"/>
+      <c r="R103" s="5">
+        <v>0</v>
+      </c>
       <c r="S103" t="s">
         <v>132</v>
       </c>
@@ -5769,7 +5776,9 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="R106" s="5"/>
+      <c r="R106" s="5">
+        <v>1</v>
+      </c>
       <c r="S106" t="s">
         <v>135</v>
       </c>
@@ -5856,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="R108" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" t="s">
         <v>138</v>
@@ -5939,7 +5948,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R110" s="5"/>
+      <c r="R110" s="5">
+        <v>0</v>
+      </c>
       <c r="S110" t="s">
         <v>140</v>
       </c>
@@ -6076,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="R113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" t="s">
         <v>143</v>
@@ -6124,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="R114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114" t="s">
         <v>144</v>
@@ -6249,7 +6260,9 @@
         <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
-      <c r="R117" s="5"/>
+      <c r="R117" s="5">
+        <v>0</v>
+      </c>
       <c r="S117" t="s">
         <v>147</v>
       </c>
@@ -6299,7 +6312,7 @@
         <v>1</v>
       </c>
       <c r="R118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S118" t="s">
         <v>148</v>
@@ -6419,7 +6432,9 @@
         <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
-      <c r="R121" s="5"/>
+      <c r="R121" s="5">
+        <v>0</v>
+      </c>
       <c r="S121" t="s">
         <v>151</v>
       </c>
@@ -6456,7 +6471,9 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="R122" s="5"/>
+      <c r="R122" s="5">
+        <v>0</v>
+      </c>
       <c r="S122" t="s">
         <v>152</v>
       </c>
@@ -6505,9 +6522,7 @@
       <c r="M123">
         <v>0</v>
       </c>
-      <c r="R123" s="3">
-        <v>0</v>
-      </c>
+      <c r="R123" s="3"/>
       <c r="S123" t="s">
         <v>153</v>
       </c>
@@ -6736,7 +6751,9 @@
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="R128" s="5"/>
+      <c r="R128" s="5">
+        <v>1</v>
+      </c>
       <c r="S128" t="s">
         <v>159</v>
       </c>
@@ -6834,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="R130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130" t="s">
         <v>161</v>
@@ -6882,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="R131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S131" t="s">
         <v>162</v>
@@ -6930,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="R132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S132" t="s">
         <v>163</v>
@@ -6968,7 +6985,9 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="R133" s="5"/>
+      <c r="R133" s="5">
+        <v>0</v>
+      </c>
       <c r="S133" t="s">
         <v>164</v>
       </c>
@@ -7017,9 +7036,7 @@
       <c r="M134">
         <v>0</v>
       </c>
-      <c r="R134" s="3">
-        <v>0</v>
-      </c>
+      <c r="R134" s="3"/>
       <c r="S134" t="s">
         <v>166</v>
       </c>
@@ -7065,9 +7082,7 @@
       <c r="M135">
         <v>1</v>
       </c>
-      <c r="R135" s="3">
-        <v>0</v>
-      </c>
+      <c r="R135" s="3"/>
       <c r="S135" t="s">
         <v>167</v>
       </c>
@@ -7113,9 +7128,7 @@
       <c r="M136">
         <v>2</v>
       </c>
-      <c r="R136" s="3">
-        <v>0</v>
-      </c>
+      <c r="R136" s="3"/>
       <c r="S136" t="s">
         <v>168</v>
       </c>
@@ -7149,7 +7162,9 @@
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
-      <c r="R137" s="5"/>
+      <c r="R137" s="5">
+        <v>0</v>
+      </c>
       <c r="S137" t="s">
         <v>169</v>
       </c>
@@ -7198,9 +7213,7 @@
       <c r="M138">
         <v>0</v>
       </c>
-      <c r="R138" s="3">
-        <v>0</v>
-      </c>
+      <c r="R138" s="3"/>
       <c r="S138" t="s">
         <v>170</v>
       </c>
@@ -7243,9 +7256,7 @@
       <c r="M139">
         <v>0</v>
       </c>
-      <c r="R139" s="3">
-        <v>0</v>
-      </c>
+      <c r="R139" s="3"/>
       <c r="S139" t="s">
         <v>171</v>
       </c>
@@ -7300,9 +7311,7 @@
       <c r="Q140">
         <v>5</v>
       </c>
-      <c r="R140" s="3">
-        <v>0</v>
-      </c>
+      <c r="R140" s="3"/>
       <c r="S140" t="s">
         <v>173</v>
       </c>
@@ -7354,9 +7363,7 @@
       <c r="Q141">
         <v>5</v>
       </c>
-      <c r="R141" s="3">
-        <v>0</v>
-      </c>
+      <c r="R141" s="3"/>
       <c r="S141" t="s">
         <v>174</v>
       </c>
@@ -7411,9 +7418,7 @@
       <c r="Q142">
         <v>5</v>
       </c>
-      <c r="R142" s="3">
-        <v>0</v>
-      </c>
+      <c r="R142" s="3"/>
       <c r="S142" t="s">
         <v>176</v>
       </c>
@@ -7465,9 +7470,7 @@
       <c r="Q143">
         <v>3</v>
       </c>
-      <c r="R143" s="3">
-        <v>0</v>
-      </c>
+      <c r="R143" s="3"/>
       <c r="S143" t="s">
         <v>177</v>
       </c>
@@ -7510,9 +7513,7 @@
       <c r="M144">
         <v>0</v>
       </c>
-      <c r="R144" s="3">
-        <v>0</v>
-      </c>
+      <c r="R144" s="3"/>
       <c r="S144" t="s">
         <v>178</v>
       </c>
@@ -7564,9 +7565,7 @@
       <c r="Q145">
         <v>4</v>
       </c>
-      <c r="R145" s="3">
-        <v>0</v>
-      </c>
+      <c r="R145" s="3"/>
       <c r="S145" t="s">
         <v>179</v>
       </c>
@@ -7677,9 +7676,7 @@
       <c r="M148">
         <v>0</v>
       </c>
-      <c r="R148" s="4">
-        <v>0</v>
-      </c>
+      <c r="R148" s="4"/>
       <c r="S148" t="s">
         <v>182</v>
       </c>
@@ -7756,9 +7753,7 @@
       <c r="M150">
         <v>1</v>
       </c>
-      <c r="R150" s="5">
-        <v>0</v>
-      </c>
+      <c r="R150" s="5"/>
       <c r="S150" t="s">
         <v>184</v>
       </c>
@@ -7801,9 +7796,7 @@
       <c r="M151">
         <v>0</v>
       </c>
-      <c r="R151" s="5">
-        <v>0</v>
-      </c>
+      <c r="R151" s="5"/>
       <c r="S151" t="s">
         <v>185</v>
       </c>
